--- a/biology/Microbiologie/Effusibacillaceae/Effusibacillaceae.xlsx
+++ b/biology/Microbiologie/Effusibacillaceae/Effusibacillaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Alicyclobacillaceae sont une famille de bactéries gram-positives du phylum des Bacillota.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les bactéries de cette famille sont des bactéries en forme de bacilles étroits plus ou moins longs. Ces bacilles sont généralement gram-positifs, non mobiles et possèdent une extrémité ovoïde[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les bactéries de cette famille sont des bactéries en forme de bacilles étroits plus ou moins longs. Ces bacilles sont généralement gram-positifs, non mobiles et possèdent une extrémité ovoïde.
 </t>
         </is>
       </c>
@@ -542,18 +556,89 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le nom correct complet (avec auteur) de ce taxon est Alicyclobacillaceae da Costa (d) &amp; Rainey (d), 2010[2]. Publiée en 2009, la description et le nom de cette famille ont été validé en 2010 par l'ICSP. Cette description a été de nouveau amendée en 2011[3].
-Le genre type est : Alicyclobacillus Wisotzkey et al., 1992[2].
-Alicyclobacillaceae a pour synonymes[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le nom correct complet (avec auteur) de ce taxon est Alicyclobacillaceae da Costa (d) &amp; Rainey (d), 2010. Publiée en 2009, la description et le nom de cette famille ont été validé en 2010 par l'ICSP. Cette description a été de nouveau amendée en 2011.
+Le genre type est : Alicyclobacillus Wisotzkey et al., 1992.
+Alicyclobacillaceae a pour synonymes :
 Effusibacillaceae Chuvochina et al., 2024
 Kyrpidiaceae Chuvochina et al., 2024
-Tumebacillaceae Chuvochina et al., 2024
-Étymologie
-L'étymologie du nom de cette famille est basée sur le genre type de celle-ci : N.L. masc. n. Alicyclobacillus, genre type de la famille ; L. fem. pl. n. suff. -aceae, suffixe pour définir une famille ; N.L. fem. pl. n. Alicyclobacillaceae, la famille du genre Alicyclobacillus[2].
-Liste des genres
-Selon LPSN  (4 mars 2024)[2], cette famille comprend les sept genres suivants :
+Tumebacillaceae Chuvochina et al., 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Effusibacillaceae</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Effusibacillaceae</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'étymologie du nom de cette famille est basée sur le genre type de celle-ci : N.L. masc. n. Alicyclobacillus, genre type de la famille ; L. fem. pl. n. suff. -aceae, suffixe pour définir une famille ; N.L. fem. pl. n. Alicyclobacillaceae, la famille du genre Alicyclobacillus.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Effusibacillaceae</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Effusibacillaceae</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Liste des genres</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon LPSN  (4 mars 2024), cette famille comprend les sept genres suivants :
 Alicyclobacillus Wisotzkey et al., 1992
 Collibacillus Jojima et al., 2023
 Effusibacillus Watanabe et al., 2014
